--- a/biology/Botanique/Hector_Bresson/Hector_Bresson.xlsx
+++ b/biology/Botanique/Hector_Bresson/Hector_Bresson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marie-Stanislas-Hector Bresson (15 février 1794 à Darney - 13 mai 1843 à Paris) est un haut fonctionnaire et homme politique français.
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Pierre Joseph Stanislas Bresson (1758-1831)[1] procureur syndic au district de Darney, Hector Bresson est le neveu de Jean-Marie-François Bresson (1760-1832), le conventionnel girondin, entré en 1800 au ministère des Affaires étrangères où il servit d’agent à Talleyrand. Grâce à la protection de son oncle, Hector Bresson fut d’abord employé au ministère des Affaires étrangères sous la Restauration, puis il devint entrepositaire des tabacs à Remiremont[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Pierre Joseph Stanislas Bresson (1758-1831) procureur syndic au district de Darney, Hector Bresson est le neveu de Jean-Marie-François Bresson (1760-1832), le conventionnel girondin, entré en 1800 au ministère des Affaires étrangères où il servit d’agent à Talleyrand. Grâce à la protection de son oncle, Hector Bresson fut d’abord employé au ministère des Affaires étrangères sous la Restauration, puis il devint entrepositaire des tabacs à Remiremont.
 A la faveur de la Révolution de 1830 il entreprit une carrière politique : tout dévoué au gouvernement de juillet, il fut pour la première fois élu député du 4e collège électoral des Vosges (Remiremont), le 5 juillet 1831. Il vota avec la majorité, notamment pour la condamnation du journal La Tribune (1833), et obtint sa réélection dans le même collège, le 21 juin 1834 ; il vota les lois sur la presse de septembre 1835, de dotation et de disjonction. 
-Nommé en 1836 intendant civil en Algérie[2], Bresson dut reparaître devant ses électeurs, qui, le 9 août 1836, le renvoyèrent à la Chambre.
-Il fut encore réélu, le 4 novembre 1837, et se montra, en toute occasion, l'ami fidèle du gouvernement Molé, qui le fit directeur des forêts de septembre 1838[3] à juin 1839[4], à la place de Legrand. 
+Nommé en 1836 intendant civil en Algérie, Bresson dut reparaître devant ses électeurs, qui, le 9 août 1836, le renvoyèrent à la Chambre.
+Il fut encore réélu, le 4 novembre 1837, et se montra, en toute occasion, l'ami fidèle du gouvernement Molé, qui le fit directeur des forêts de septembre 1838 à juin 1839, à la place de Legrand. 
 Il reçut de sa circonscription, comme député, une nouvelle investiture, le 22 octobre 1838, puis aux élections législatives 2 mars 1839.
-Dans le cours de cette nouvelle législature, le troisième gouvernement Soult d'octobre 1840, promut Bresson directeur général des forêts à la place de Legrand qui prit la direction générale des Contributions directes ; il occupera ce poste jusqu'à son décès, remplacé à nouveau par Legrand[2],[5]. 
-Il fut confirmé à nouveau dans son mandat de député, le 11 avril 1840, et réélu pour la dernière fois lors du renouvellement du 9 juillet 1842. Il mourut peu de mois après l'ouverture de cette dernière législature le 13 mai 1843[6]. Bresson avait régulièrement voté avec la majorité conservatrice.
+Dans le cours de cette nouvelle législature, le troisième gouvernement Soult d'octobre 1840, promut Bresson directeur général des forêts à la place de Legrand qui prit la direction générale des Contributions directes ; il occupera ce poste jusqu'à son décès, remplacé à nouveau par Legrand,. 
+Il fut confirmé à nouveau dans son mandat de député, le 11 avril 1840, et réélu pour la dernière fois lors du renouvellement du 9 juillet 1842. Il mourut peu de mois après l'ouverture de cette dernière législature le 13 mai 1843. Bresson avait régulièrement voté avec la majorité conservatrice.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Hector Bresson », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
